--- a/engish/data/dwell_time.xlsx
+++ b/engish/data/dwell_time.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franky/seminar/experiment/timeperception/engish/data/"/>
@@ -21,6 +21,27 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Task 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -176,21 +197,24 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>TASK 2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>TASK 3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>TASK 4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>TASK 5</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>工作表1!$A$7:$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Task 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -291,21 +315,24 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>TASK 2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>TASK 3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>TASK 4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>TASK 5</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>工作表1!$A$7:$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Task 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Task 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Task 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -339,11 +366,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2128147648"/>
-        <c:axId val="2128304144"/>
+        <c:axId val="2141945392"/>
+        <c:axId val="2141948880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128147648"/>
+        <c:axId val="2141945392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,20 +403,17 @@
                   <a:noFill/>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128304144"/>
+        <c:crossAx val="2141948880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -397,7 +421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128304144"/>
+        <c:axId val="2141948880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,29 +453,54 @@
                       <a:noFill/>
                     </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:rPr>
                   <a:t>dwell</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN"/>
+                  <a:rPr lang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:rPr>
                   <a:t>time(second)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -474,14 +523,11 @@
                     <a:noFill/>
                   </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
@@ -509,20 +555,17 @@
                   <a:noFill/>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128147648"/>
+        <c:crossAx val="2141945392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -538,7 +581,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.816837489063867"/>
+          <c:y val="0.0740740740740741"/>
+          <c:w val="0.144273622047244"/>
+          <c:h val="0.165419947506562"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -557,14 +609,11 @@
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -1453,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1527,6 +1576,20 @@
       </c>
       <c r="E4">
         <v>35.092440958899999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
